--- a/scripts/Sample_Lead.xlsx
+++ b/scripts/Sample_Lead.xlsx
@@ -254,8 +254,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
